--- a/user-data/poorest20pct/poorest20pct.xlsx
+++ b/user-data/poorest20pct/poorest20pct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>id</t>
   </si>
@@ -947,9 +947,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives calculations based on World Bank povcalnet. See our &lt;a href="http://devinit.org/#!/post/ending-poverty-by-focusing-on-the-poorest-20-of-people-globally"&gt;factsheet&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1334,32 +1331,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13">
@@ -1375,11 +1372,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/poorest20pct/poorest20pct.xlsx
+++ b/user-data/poorest20pct/poorest20pct.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -955,7 +955,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/poorest20pct/poorest20pct.xlsx
+++ b/user-data/poorest20pct/poorest20pct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>id</t>
   </si>
@@ -961,7 +961,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1374,6 +1377,11 @@
         <v>317</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/poorest20pct/poorest20pct.xlsx
+++ b/user-data/poorest20pct/poorest20pct.xlsx
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -115,7 +115,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -148,76 +148,76 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -703,7 +703,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -715,7 +715,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -847,7 +847,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -970,7 +970,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1697,7 @@
         <v>2011</v>
       </c>
       <c r="D22" t="n">
-        <v>8859291</v>
+        <v>2827035</v>
       </c>
     </row>
     <row r="23">
@@ -1711,7 +1711,7 @@
         <v>2011</v>
       </c>
       <c r="D23" t="n">
-        <v>2827035</v>
+        <v>7073788</v>
       </c>
     </row>
     <row r="24">
@@ -1725,7 +1725,7 @@
         <v>2011</v>
       </c>
       <c r="D24" t="n">
-        <v>7073788</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="25">
@@ -1739,7 +1739,7 @@
         <v>2011</v>
       </c>
       <c r="D25" t="n">
-        <v>88200</v>
+        <v>2835384</v>
       </c>
     </row>
     <row r="26">
@@ -1753,7 +1753,7 @@
         <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>2835384</v>
+        <v>5397344</v>
       </c>
     </row>
     <row r="27">
@@ -1767,7 +1767,7 @@
         <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>5397344</v>
+        <v>200796</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>2011</v>
       </c>
       <c r="D28" t="n">
-        <v>200796</v>
+        <v>132934457</v>
       </c>
     </row>
     <row r="29">
@@ -1795,7 +1795,7 @@
         <v>2011</v>
       </c>
       <c r="D29" t="n">
-        <v>132934457</v>
+        <v>3192024</v>
       </c>
     </row>
     <row r="30">
@@ -1809,7 +1809,7 @@
         <v>2011</v>
       </c>
       <c r="D30" t="n">
-        <v>3192024</v>
+        <v>385280</v>
       </c>
     </row>
     <row r="31">
@@ -1823,7 +1823,7 @@
         <v>2011</v>
       </c>
       <c r="D31" t="n">
-        <v>385280</v>
+        <v>1729224</v>
       </c>
     </row>
     <row r="32">
@@ -1837,7 +1837,7 @@
         <v>2011</v>
       </c>
       <c r="D32" t="n">
-        <v>1729224</v>
+        <v>90534</v>
       </c>
     </row>
     <row r="33">
@@ -1851,7 +1851,7 @@
         <v>2011</v>
       </c>
       <c r="D33" t="n">
-        <v>90534</v>
+        <v>8859291</v>
       </c>
     </row>
     <row r="34">
@@ -3721,7 +3721,7 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>8859291</v>
+        <v>2827035</v>
       </c>
     </row>
     <row r="23">
@@ -3732,7 +3732,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>2827035</v>
+        <v>7073788</v>
       </c>
     </row>
     <row r="24">
@@ -3743,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>7073788</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="25">
@@ -3754,7 +3754,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>88200</v>
+        <v>2835384</v>
       </c>
     </row>
     <row r="26">
@@ -3765,7 +3765,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>2835384</v>
+        <v>5397344</v>
       </c>
     </row>
     <row r="27">
@@ -3776,7 +3776,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>5397344</v>
+        <v>200796</v>
       </c>
     </row>
     <row r="28">
@@ -3787,7 +3787,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>200796</v>
+        <v>132934457</v>
       </c>
     </row>
     <row r="29">
@@ -3798,7 +3798,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>132934457</v>
+        <v>3192024</v>
       </c>
     </row>
     <row r="30">
@@ -3809,7 +3809,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>3192024</v>
+        <v>385280</v>
       </c>
     </row>
     <row r="31">
@@ -3820,7 +3820,7 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>385280</v>
+        <v>1729224</v>
       </c>
     </row>
     <row r="32">
@@ -3831,7 +3831,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>1729224</v>
+        <v>90534</v>
       </c>
     </row>
     <row r="33">
@@ -3842,7 +3842,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>90534</v>
+        <v>8859291</v>
       </c>
     </row>
     <row r="34">
